--- a/conf-core/src/test/resources/dataloader/device-types-association-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/device-types-association-failure-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
@@ -165,13 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,6 +182,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -229,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,264 +479,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>15</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
